--- a/biology/Botanique/Picramnia/Picramnia.xlsx
+++ b/biology/Botanique/Picramnia/Picramnia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Picramnia est un genre de la famille des Simaroubaceae, ou des Picramniaceae selon la classification phylogénétique, avec quelques dizaines des espèces. L'espèce type est Picramnia antidesma Sw..
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Picramnia regroupe des petits arbres, des arbres ou des arbustes à feuilles imparipennées.
 Les folioles, alternes, généralement cartacées, s'assombrissant souvent au séchage.
@@ -524,7 +538,7 @@
 Les fleurs staminées (mâles) portent généralement un pistillodium (pistil stérile) conique et pubescent. 
 Les fleurs pistillées (femelles) sont dotées d'un ovaire ovoïde, glabres à densément pubescents, à 2(4) carpelles, à style très court, et à stigmates divergents. 
 Les fruits sont des baies obovoïdes à ellipsoïdes, glabres à glabres et luisantes ou à pubescence courte, et avec les stigmates sessiles et le calice persistants. 
-On compte 2-4 graines par fruit[3].
+On compte 2-4 graines par fruit.
 </t>
         </is>
       </c>
@@ -553,10 +567,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Picramnia antillana (Eggers) Urban
-Selon GBIF       (09 janvier 2022)[4] :
+Selon GBIF       (09 janvier 2022) :
 Picramnia andrade-limae Pirani
 Picramnia antidesma Sw.
 Picramnia apetala Tul.
@@ -608,7 +624,7 @@
 Picramnia tumbesina Cornejo
 Picramnia xalapensis Planch.
 Picramnia zanthoxyloides Kunth
-Selon World Flora Online (WFO)       (09 janvier 2022)[5] :
+Selon World Flora Online (WFO)       (09 janvier 2022) :
 Picramnia andrade-limae Pirani
 Picramnia antidesma Sw.
 Picramnia antidesmoides Griseb.
